--- a/docs/PST1/PST1_02.08.24_output.xlsx
+++ b/docs/PST1/PST1_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,716 +505,853 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730740523.247087</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730740525.6790895</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730740523.247087.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730740525.6790895.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.97</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.080000000000041</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730740536.867765</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730740541.7602994</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730740536.867765.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730740541.7602994.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.29</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>286.79</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730740552.5523412</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730740555.0183825</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730740552.5523412.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730740555.0183825.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.46</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>131.95</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5100000000000193</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730740564.1603637</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730740565.676376</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730740564.1603637.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730740565.676376.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>130.61</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>130.34</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2700000000000102</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730740567.1367002</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730740572.3702323</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730740567.1367002.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730740572.3702323.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.42</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.47</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.050000000000011</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730740579.9489055</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1730740579.9489055.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+          <t>./test_images/GAZP1730740579.9489055.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.2</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>131.29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.09000000000000341</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730740583.4105165</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730740587.3039887</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740583.4105165.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740587.3039887.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6689.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6646.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>43</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730740590.363188</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730740591.956959</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740590.363188.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740591.956959.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6646.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6624.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>22</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730740594.1468682</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730740596.1046195</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740594.1468682.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740596.1046195.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6622.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6602.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>20</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730740597.7031791</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730740602.0688484</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740597.7031791.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740602.0688484.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6622.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6638.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-16</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730740604.5980623</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730740606.652922</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740604.5980623.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730740606.652922.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6603</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6594.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>8.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730740622.9813883</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730740623.1518598</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740622.9813883.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740623.1518598.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>507.55</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>507.35</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730740630.3077202</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730740633.3209543</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740630.3077202.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740633.3209543.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>507.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>504.85</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>2.649999999999977</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730740633.5615296</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730740633.6148882</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740633.5615296.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730740633.6148882.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>505.35</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>505.35</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1207,330 +1359,397 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730740642.8859217</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730740643.007803</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740642.8859217.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740643.007803.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>229.07</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>228.3</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.7699999999999818</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730740643.9847248</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730740647.4697542</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740643.9847248.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740647.4697542.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>229.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>228.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.099999999999994</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730740656.5608978</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730740659.6949975</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740656.5608978.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740659.6949975.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>228.18</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>231.71</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-3.530000000000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-1.55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730740666.2288482</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730740669.7644334</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740666.2288482.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730740669.7644334.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>230.1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>230.46</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730740671.0367146</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1730740671.0367146.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1730740671.0367146.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>229.86</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>230.16</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2999999999999829</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730740679.747075</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730740682.6736605</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740679.747075.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740682.6736605.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1025.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1020.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730740688.0481315</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730740692.979691</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740688.0481315.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740692.979691.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1021</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1021</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,391 +1757,463 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730740696.7840178</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730740697.336245</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740696.7840178.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740697.336245.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1022</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730740698.1771495</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730740698.8703938</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740698.1771495.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730740698.8703938.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1019.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1018.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730740702.7693572</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730740702.8525379</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740702.7693572.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740702.8525379.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>128.62</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>128.52</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730740703.0148003</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730740703.1400378</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740703.0148003.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740703.1400378.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>128.66</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>128.42</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730740704.058314</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730740704.3158455</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740704.058314.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740704.3158455.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>128.66</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>128.44</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730740704.448918</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730740706.6750426</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740704.448918.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740706.6750426.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>128.64</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>128.18</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730740712.0901697</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730740713.1384864</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740712.0901697.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740713.1384864.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.98</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>127.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.480000000000004</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730740714.8571491</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730740723.2878416</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740714.8571491.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730740723.2878416.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>128</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>128</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1930,1900 +2221,2305 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730740729.6038406</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730740729.6038406.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+          <t>./test_images/GMKN1730740729.6038406.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>127.6</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730740733.5755072</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730740737.8985455</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740733.5755072.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740737.8985455.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>165.52</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>163.86</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.659999999999997</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730740745.1201243</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730740750.7480955</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740745.1201243.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740750.7480955.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>164.78</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>166.46</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.680000000000007</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730740757.6345453</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730740759.520217</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740757.6345453.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730740759.520217.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>165.22</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>165.18</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730740760.960961</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1730740760.960961.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+          <t>./test_images/NLMK1730740760.960961.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>165.2</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730740762.9352148</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730740763.2026231</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740762.9352148.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740763.2026231.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>50.57</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>50.385</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1850000000000023</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730740764.3429673</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730740768.0498283</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740764.3429673.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740768.0498283.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>50.62</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>50.385</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2349999999999994</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730740770.863358</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730740773.9218578</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740770.863358.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740773.9218578.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>50.55</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>50.475</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730740777.7763972</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730740778.7994533</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740777.7763972.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730740778.7994533.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>50.35</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>50.23</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730740780.8741384</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1730740780.8741384.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+          <t>./test_images/MAGN1730740780.8741384.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>50.285</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.105000000000004</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730740794.997918</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730740798.6582415</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730740794.997918.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730740798.6582415.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1409.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1405</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>4.200000000000045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730740809.731666</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730740811.8527505</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730740809.731666.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730740811.8527505.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1397.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1411.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-13.60000000000014</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730740826.260868</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730740828.0620623</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740826.260868.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740828.0620623.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>61.01</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>60.78</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730740831.78309</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730740834.8368025</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740831.78309.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740834.8368025.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>60.52</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>60.38</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730740837.2324243</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730740840.0690699</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740837.2324243.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740840.0690699.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>60.21</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>60.13</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730740851.9028504</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730740853.2439945</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740851.9028504.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730740853.2439945.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>60.32</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>60.38</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730740853.259951</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730740853.259951.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730740853.259951.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>60.38</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730740855.4341855</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730740857.6301265</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730740855.4341855.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730740857.6301265.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>97.48</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>97.58</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730740857.838148</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1730740857.838148.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+          <t>./test_images/VTBR1730740857.838148.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>97.65000000000001</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730740859.5670772</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730740861.326182</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1730740859.5670772.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1730740861.326182.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>57.47</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>57.36</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730740874.4116974</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730740877.793165</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1730740874.4116974.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1730740877.793165.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>57.16</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>57.06</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730740886.4380097</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1730740886.4380097.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+          <t>./test_images/SELG1730740886.4380097.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>56.99</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>57.13</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730740908.5630214</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730740911.9511569</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730740908.5630214.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730740911.9511569.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>145.82</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>144.56</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.259999999999991</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730740914.9962432</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730740916.7354045</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730740914.9962432.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730740916.7354045.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>145.64</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>145.14</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730740916.751304</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730740916.751304.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730740916.751304.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>145.14</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>145.26</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730740923.1028872</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730740927.2792797</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740923.1028872.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740927.2792797.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>20.649</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>20.631</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.01800000000000068</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730740929.563094</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730740937.2927103</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740929.563094.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740937.2927103.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>20.775</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>20.789</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.0140000000000029</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730740944.401697</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730740946.093291</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740944.401697.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740946.093291.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>20.86</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>20.85</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730740946.1092153</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730740946.7472997</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740946.1092153.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730740946.7472997.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>20.85</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>20.885</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.03500000000000014</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730740954.3904338</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730740958.206739</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740954.3904338.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740958.206739.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>673.25</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>671.35</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.899999999999977</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730740960.6355681</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730740960.8843493</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740960.6355681.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740960.8843493.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>668.45</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>663.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>4.650000000000091</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730740965.676147</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730740973.168458</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740965.676147.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740973.168458.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>670.85</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>674.3</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-3.449999999999932</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730740973.1844146</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730740973.93304</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740973.1844146.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740973.93304.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>674.3</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>674.6</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.3000000000000682</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730740974.9196131</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730740975.3212173</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740974.9196131.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730740975.3212173.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>675.9</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>676.75</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.8500000000000227</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730740975.6192505</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1730740975.6192505.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1730740975.6192505.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>676.85</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730740977.058067</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730740978.390166</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/FEES1730740977.058067.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/FEES1730740978.390166.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.0988</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.09928000000000001</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.0004800000000000082</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730740978.407093</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730740990.8917313</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/FEES1730740978.407093.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/FEES1730740990.8917313.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.09928000000000001</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.09944000000000001</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.0001600000000000074</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730740994.7490554</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730740996.0306985</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/FEES1730740994.7490554.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/FEES1730740996.0306985.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.09976</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.09922</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.0005399999999999988</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730741002.6897407</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1730741002.6897407.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+          <t>./test_images/FEES1730741002.6897407.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>0.09896000000000001</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>0.09916</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.0001999999999999919</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730741013.4405813</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730741016.5851793</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730741013.4405813.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730741016.5851793.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>0.5991000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.5976</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.001500000000000057</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730741031.8793802</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730741032.1959355</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730741031.8793802.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730741032.1959355.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.6025</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.6025</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3831,784 +4527,928 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730741033.2398915</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730741034.891094</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741033.2398915.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741034.891094.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2982.35</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2989.15</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-6.800000000000182</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730741035.1905959</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730741035.9087775</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741035.1905959.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741035.9087775.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2990.85</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2983.75</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>7.099999999999909</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730741037.0357268</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730741037.4929087</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741037.0357268.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741037.4929087.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2988.95</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2981</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>7.949999999999818</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730741038.9240627</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730741039.6450667</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741038.9240627.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741039.6450667.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2972.85</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>2971.1</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>1.75</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730741041.194133</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730741042.3577204</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741041.194133.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741042.3577204.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2972.35</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2975.45</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-3.099999999999909</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730741044.4479868</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730741044.5394816</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741044.4479868.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741044.5394816.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>2962.35</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>2963.5</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-1.150000000000091</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730741044.7388287</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730741045.624193</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741044.7388287.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741045.624193.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>2967.9</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>2962.5</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>5.400000000000091</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730741047.5144103</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730741048.3438473</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741047.5144103.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741048.3438473.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>2963.2</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>2964.7</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730741050.599047</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730741051.4070659</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741050.599047.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741051.4070659.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>2972.8</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>2979.5</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-6.699999999999818</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730741051.4239912</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730741051.8720157</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741051.4239912.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741051.8720157.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>2979.5</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>2984</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730741052.4898565</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730741054.281189</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741052.4898565.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741054.281189.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>2977.65</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>2962.4</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-15.25</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730741054.7093172</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730741057.2949831</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741054.7093172.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741057.2949831.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>2961.05</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>2967.25</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>6.199999999999818</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730741057.310913</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730741058.0588791</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741057.310913.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741058.0588791.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>2967.25</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>2963.2</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>4.050000000000182</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730741071.7607281</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730741074.2619379</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730741071.7607281.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730741074.2619379.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>34.265</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>34.095</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730741078.9472256</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1730741082.39855</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730741078.9472256.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730741082.39855.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>34.25</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>34.255</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730741089.9566784</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730741091.9829655</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730741089.9566784.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730741091.9829655.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>11.859</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>11.866</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.006999999999999673</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -4622,7 +5462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4646,6 +5486,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4659,6 +5514,15 @@
       <c r="C2" t="n">
         <v>13</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.1884615384615245</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4667,10 +5531,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.499999999999986</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1999999999999968</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -4680,114 +5553,195 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.250000000000227</v>
+        <v>4.85000000000025</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.808333333333375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7300000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.5</v>
+        <v>-1.000000000000028</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.2000000000000057</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.4400000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.615000000000002</v>
+        <v>0.2699999999999889</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05399999999999779</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>77.5</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3899999999999935</v>
+        <v>0.509999999999998</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1019999999999996</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.300000000000011</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04899999999999594</v>
+        <v>-0.4800000000000182</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2699999999999818</v>
+        <v>0.04899999999999594</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01224999999999898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01999999999998181</v>
+        <v>-0.3599999999999852</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.08999999999999631</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4797,10 +5751,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0008599999999999997</v>
+        <v>0.0006600000000000078</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.000165000000000002</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
@@ -4815,6 +5778,15 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.9499999999999886</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4828,71 +5800,125 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.05266666666666649</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001500000000000057</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02333333333333106</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4199999999999591</v>
+        <v>1.879999999999995</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6266666666666652</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2099999999999937</v>
+        <v>0.001500000000000057</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.0007500000000000284</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-9.400000000000091</v>
+        <v>-0.4199999999999591</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.2099999999999795</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.759999999999991</v>
+        <v>-9.400000000000091</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>-4.700000000000045</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.6699999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4901,10 +5927,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.09999999999999432</v>
+        <v>-0.04999999999998295</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.02499999999999147</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="22">
@@ -4919,6 +5954,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
